--- a/BE/data/dataset_chatbot.xlsx
+++ b/BE/data/dataset_chatbot.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding.nie\joki chatbot\chatbot-v1\BE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E4A690-2EA0-414B-A062-5CE63B71F535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02A9B3E-7FAB-43ED-A3A4-A68713C2F12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9FA9F726-1199-4D1A-A1B4-058FE188ACD1}"/>
+    <workbookView xWindow="504" yWindow="2748" windowWidth="17280" windowHeight="8880" xr2:uid="{9FA9F726-1199-4D1A-A1B4-058FE188ACD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1124,9 +1124,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1452,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FEF45D-587E-44AC-92D5-494E2215102D}">
   <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B163" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1464,13 +1463,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1798,7 +1797,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="str">
@@ -2054,7 +2053,7 @@
       <c r="B50" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2963,7 +2962,7 @@
         <f t="shared" si="2"/>
         <v>about</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="3" t="s">
         <v>279</v>
       </c>
     </row>
